--- a/retailer/data/customers.xlsx
+++ b/retailer/data/customers.xlsx
@@ -1,44 +1,593 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5092fb7e2292c0/Desktop/retailer/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_23F921EDF9C3CE13992C4C48D5D17BBC4982844B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3C04EA-B323-4888-B0B8-24E7DA52D498}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+  <si>
+    <t>customer_id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>last_purchase</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>join_date</t>
+  </si>
+  <si>
+    <t>total_orders</t>
+  </si>
+  <si>
+    <t>CUST-001</t>
+  </si>
+  <si>
+    <t>CUST-002</t>
+  </si>
+  <si>
+    <t>CUST-003</t>
+  </si>
+  <si>
+    <t>CUST-004</t>
+  </si>
+  <si>
+    <t>CUST-005</t>
+  </si>
+  <si>
+    <t>CUST-006</t>
+  </si>
+  <si>
+    <t>CUST-007</t>
+  </si>
+  <si>
+    <t>CUST-008</t>
+  </si>
+  <si>
+    <t>CUST-009</t>
+  </si>
+  <si>
+    <t>CUST-010</t>
+  </si>
+  <si>
+    <t>CUST-011</t>
+  </si>
+  <si>
+    <t>CUST-012</t>
+  </si>
+  <si>
+    <t>CUST-013</t>
+  </si>
+  <si>
+    <t>CUST-014</t>
+  </si>
+  <si>
+    <t>CUST-015</t>
+  </si>
+  <si>
+    <t>CUST-016</t>
+  </si>
+  <si>
+    <t>CUST-017</t>
+  </si>
+  <si>
+    <t>CUST-018</t>
+  </si>
+  <si>
+    <t>CUST-019</t>
+  </si>
+  <si>
+    <t>CUST-020</t>
+  </si>
+  <si>
+    <t>CUST-021</t>
+  </si>
+  <si>
+    <t>CUST-022</t>
+  </si>
+  <si>
+    <t>CUST-023</t>
+  </si>
+  <si>
+    <t>CUST-024</t>
+  </si>
+  <si>
+    <t>CUST-025</t>
+  </si>
+  <si>
+    <t>CUST-026</t>
+  </si>
+  <si>
+    <t>CUST-027</t>
+  </si>
+  <si>
+    <t>CUST-028</t>
+  </si>
+  <si>
+    <t>CUST-029</t>
+  </si>
+  <si>
+    <t>CUST-030</t>
+  </si>
+  <si>
+    <t>Erin Anderson</t>
+  </si>
+  <si>
+    <t>Cody Delacruz</t>
+  </si>
+  <si>
+    <t>James Cross</t>
+  </si>
+  <si>
+    <t>James Robinson</t>
+  </si>
+  <si>
+    <t>Felicia Price</t>
+  </si>
+  <si>
+    <t>Tracy Allen</t>
+  </si>
+  <si>
+    <t>Mark Murphy</t>
+  </si>
+  <si>
+    <t>Ryan Thompson</t>
+  </si>
+  <si>
+    <t>Spencer Foley</t>
+  </si>
+  <si>
+    <t>Katherine Mckay</t>
+  </si>
+  <si>
+    <t>Whitney Padilla</t>
+  </si>
+  <si>
+    <t>Patricia Murray</t>
+  </si>
+  <si>
+    <t>Nicole Miller</t>
+  </si>
+  <si>
+    <t>Autumn Alexander</t>
+  </si>
+  <si>
+    <t>Colton Thompson</t>
+  </si>
+  <si>
+    <t>Vicki Garcia</t>
+  </si>
+  <si>
+    <t>Brandon Gay</t>
+  </si>
+  <si>
+    <t>Logan Hale</t>
+  </si>
+  <si>
+    <t>Zachary Waller</t>
+  </si>
+  <si>
+    <t>James Rodriguez</t>
+  </si>
+  <si>
+    <t>Tom Robbins</t>
+  </si>
+  <si>
+    <t>Victor Mayer</t>
+  </si>
+  <si>
+    <t>Sara Dixon</t>
+  </si>
+  <si>
+    <t>Austin Clark</t>
+  </si>
+  <si>
+    <t>Terry Massey</t>
+  </si>
+  <si>
+    <t>William Delgado</t>
+  </si>
+  <si>
+    <t>Erica Thompson</t>
+  </si>
+  <si>
+    <t>Micheal Cisneros</t>
+  </si>
+  <si>
+    <t>Molly Miller</t>
+  </si>
+  <si>
+    <t>David Haley</t>
+  </si>
+  <si>
+    <t>csanders@example.org</t>
+  </si>
+  <si>
+    <t>chelsea37@example.com</t>
+  </si>
+  <si>
+    <t>arnoldgary@example.com</t>
+  </si>
+  <si>
+    <t>gardnereugene@example.com</t>
+  </si>
+  <si>
+    <t>gloverkristen@example.net</t>
+  </si>
+  <si>
+    <t>alyssa81@example.com</t>
+  </si>
+  <si>
+    <t>edwardsann@example.net</t>
+  </si>
+  <si>
+    <t>humphreymelissa@example.org</t>
+  </si>
+  <si>
+    <t>paul81@example.com</t>
+  </si>
+  <si>
+    <t>carolyn40@example.org</t>
+  </si>
+  <si>
+    <t>rashley@example.com</t>
+  </si>
+  <si>
+    <t>abigailmiller@example.net</t>
+  </si>
+  <si>
+    <t>briangonzalez@example.org</t>
+  </si>
+  <si>
+    <t>zmartinez@example.com</t>
+  </si>
+  <si>
+    <t>elizabeth39@example.net</t>
+  </si>
+  <si>
+    <t>steven90@example.net</t>
+  </si>
+  <si>
+    <t>jennalozano@example.com</t>
+  </si>
+  <si>
+    <t>lindasingh@example.net</t>
+  </si>
+  <si>
+    <t>chensamantha@example.org</t>
+  </si>
+  <si>
+    <t>swilkins@example.org</t>
+  </si>
+  <si>
+    <t>petersonsamuel@example.org</t>
+  </si>
+  <si>
+    <t>timothy96@example.com</t>
+  </si>
+  <si>
+    <t>emcguire@example.com</t>
+  </si>
+  <si>
+    <t>kennethdunn@example.net</t>
+  </si>
+  <si>
+    <t>bautistaaustin@example.com</t>
+  </si>
+  <si>
+    <t>ygriffin@example.com</t>
+  </si>
+  <si>
+    <t>rmullins@example.com</t>
+  </si>
+  <si>
+    <t>paul00@example.org</t>
+  </si>
+  <si>
+    <t>ruben81@example.net</t>
+  </si>
+  <si>
+    <t>kjensen@example.org</t>
+  </si>
+  <si>
+    <t>7877233587</t>
+  </si>
+  <si>
+    <t>001-746-649-6775x0493</t>
+  </si>
+  <si>
+    <t>886-531-7145</t>
+  </si>
+  <si>
+    <t>+1-693-633-6559x97914</t>
+  </si>
+  <si>
+    <t>+1-835-441-2218</t>
+  </si>
+  <si>
+    <t>(645)458-7308</t>
+  </si>
+  <si>
+    <t>3729449815</t>
+  </si>
+  <si>
+    <t>001-286-639-5351</t>
+  </si>
+  <si>
+    <t>+1-546-675-3057x09996</t>
+  </si>
+  <si>
+    <t>232.681.3592</t>
+  </si>
+  <si>
+    <t>001-271-894-5836x0300</t>
+  </si>
+  <si>
+    <t>(952)579-1703x275</t>
+  </si>
+  <si>
+    <t>001-395-273-4756</t>
+  </si>
+  <si>
+    <t>927-958-2596x5917</t>
+  </si>
+  <si>
+    <t>001-305-511-0232x034</t>
+  </si>
+  <si>
+    <t>3886745475</t>
+  </si>
+  <si>
+    <t>(272)751-0190x86438</t>
+  </si>
+  <si>
+    <t>(505)211-0414</t>
+  </si>
+  <si>
+    <t>+1-211-625-5503</t>
+  </si>
+  <si>
+    <t>784.553.3498x3210</t>
+  </si>
+  <si>
+    <t>991.945.6571</t>
+  </si>
+  <si>
+    <t>5349377265</t>
+  </si>
+  <si>
+    <t>731.619.3803</t>
+  </si>
+  <si>
+    <t>843.778.9174x114</t>
+  </si>
+  <si>
+    <t>814.874.6849</t>
+  </si>
+  <si>
+    <t>461-774-3537</t>
+  </si>
+  <si>
+    <t>552.921.3433x417</t>
+  </si>
+  <si>
+    <t>7045174327</t>
+  </si>
+  <si>
+    <t>(704)826-8729x223</t>
+  </si>
+  <si>
+    <t>787-394-0027x25962</t>
+  </si>
+  <si>
+    <t>291 Meyers Fort, South Breannaborough, KY 38325</t>
+  </si>
+  <si>
+    <t>USS Williamson, FPO AA 96983</t>
+  </si>
+  <si>
+    <t>4325 Dawn Mountains, East Debbiefort, ND 13678</t>
+  </si>
+  <si>
+    <t>0855 Joseph View, East Larryshire, VI 19573</t>
+  </si>
+  <si>
+    <t>31323 Jennifer Avenue Apt. 899, Williamchester, KY 65919</t>
+  </si>
+  <si>
+    <t>2962 Michelle Pass, Christopherburgh, NE 18644</t>
+  </si>
+  <si>
+    <t>356 Scott Hollow Suite 895, Port Kristinatown, MT 64528</t>
+  </si>
+  <si>
+    <t>3522 Johnson Valley, North Jamestown, NC 64566</t>
+  </si>
+  <si>
+    <t>PSC 4500, Box 1033, APO AA 54198</t>
+  </si>
+  <si>
+    <t>01641 Cynthia Divide, Ericstad, VA 07712</t>
+  </si>
+  <si>
+    <t>5584 Gabriela Alley Suite 853, North Madisonchester, PA 60008</t>
+  </si>
+  <si>
+    <t>25043 Watson Mews Apt. 032, Crystaltown, TN 66722</t>
+  </si>
+  <si>
+    <t>210 Young Fields, Sydneyburgh, MT 36006</t>
+  </si>
+  <si>
+    <t>8296 Antonio Locks, New Stevenshire, MP 18519</t>
+  </si>
+  <si>
+    <t>126 Williams Bridge, West Sara, MP 68405</t>
+  </si>
+  <si>
+    <t>03256 Kristina Ways Suite 795, East Victoria, VI 69514</t>
+  </si>
+  <si>
+    <t>3993 Frederick Centers Apt. 790, Kevinview, IA 03068</t>
+  </si>
+  <si>
+    <t>34808 Amanda Forks Suite 425, Pearsonport, CA 55055</t>
+  </si>
+  <si>
+    <t>84529 Simon Route Apt. 324, Jacobshire, RI 70309</t>
+  </si>
+  <si>
+    <t>7945 Kathleen Wells, West Jasminefurt, MD 40811</t>
+  </si>
+  <si>
+    <t>5504 Christopher Lock, North Kennethborough, MA 43096</t>
+  </si>
+  <si>
+    <t>Unit 1794 Box 0595, DPO AE 11774</t>
+  </si>
+  <si>
+    <t>9038 Dana Overpass Suite 912, Port Davidland, MS 05771</t>
+  </si>
+  <si>
+    <t>745 Ramirez Lane Apt. 942, West Aaron, GU 17836</t>
+  </si>
+  <si>
+    <t>907 Miller Springs, Port Katherine, MD 96882</t>
+  </si>
+  <si>
+    <t>9733 Kevin Branch, Kayleemouth, AR 66344</t>
+  </si>
+  <si>
+    <t>29482 Parker Valleys Apt. 478, East Scott, DE 57519</t>
+  </si>
+  <si>
+    <t>448 Tucker Wells, Anitafort, OH 47977</t>
+  </si>
+  <si>
+    <t>498 Harrell Fort Apt. 696, Lake Daniel, MO 93077</t>
+  </si>
+  <si>
+    <t>030 Elizabeth Cape, South Stephanieside, TN 08220</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +650,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +702,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +736,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +771,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +947,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.46484375" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" customWidth="1"/>
+    <col min="3" max="3" width="29.1328125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="73.73046875" customWidth="1"/>
+    <col min="6" max="6" width="21.46484375" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +983,699 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
